--- a/tests/data/ece_school_applicants.xlsx
+++ b/tests/data/ece_school_applicants.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pp-brandon/Projects/team_02/tests/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D507D7-9CD9-B041-9C34-3C4D2880BFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="1350">
   <si>
     <t>Decision_Date</t>
   </si>
@@ -4061,13 +4067,15 @@
   </si>
   <si>
     <t>Namekagon High School</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4079,7 +4087,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4099,16 +4107,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70ad47"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe2f0d9"/>
+        <fgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4118,59 +4126,59 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </right>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4178,24 +4186,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </right>
       <top style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFa9d18e"/>
+        <color rgb="FFA9D18E"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4203,88 +4220,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4295,10 +4311,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4336,71 +4352,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4428,7 +4444,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -4451,11 +4467,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -4464,13 +4480,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4480,7 +4496,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4489,7 +4505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4498,7 +4514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4506,10 +4522,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -4574,44 +4590,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y316"/>
+  <dimension ref="A1:Z316"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="P306" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z316"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="20" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4687,8 +4688,11 @@
       <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="Z1" s="24" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44826</v>
       </c>
@@ -4758,8 +4762,11 @@
       <c r="Y2" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44566</v>
       </c>
@@ -4823,8 +4830,11 @@
       <c r="Y3" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44694</v>
       </c>
@@ -4859,7 +4869,7 @@
         <v>2023</v>
       </c>
       <c r="L4" s="9">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4892,8 +4902,11 @@
       <c r="Y4" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44898</v>
       </c>
@@ -4928,7 +4941,7 @@
         <v>2023</v>
       </c>
       <c r="L5" s="15">
-        <v>3.950000047683716</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -4959,8 +4972,11 @@
       <c r="Y5" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44849</v>
       </c>
@@ -5032,8 +5048,11 @@
       <c r="Y6" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44647</v>
       </c>
@@ -5068,7 +5087,7 @@
         <v>2023</v>
       </c>
       <c r="L7" s="15">
-        <v>3.740000009536743</v>
+        <v>3.7400000095367432</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -5097,8 +5116,11 @@
       <c r="Y7" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44869</v>
       </c>
@@ -5162,8 +5184,11 @@
       <c r="Y8" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44745</v>
       </c>
@@ -5227,8 +5252,11 @@
       <c r="Y9" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44832</v>
       </c>
@@ -5294,8 +5322,11 @@
       <c r="Y10" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44851</v>
       </c>
@@ -5330,7 +5361,7 @@
         <v>2023</v>
       </c>
       <c r="L11" s="15">
-        <v>4.289999961853027</v>
+        <v>4.2899999618530273</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -5359,8 +5390,11 @@
       <c r="Y11" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>44574</v>
       </c>
@@ -5424,8 +5458,11 @@
       <c r="Y12" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44841</v>
       </c>
@@ -5491,8 +5528,11 @@
       <c r="Y13" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>44667</v>
       </c>
@@ -5556,8 +5596,11 @@
       <c r="Y14" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44851</v>
       </c>
@@ -5625,8 +5668,11 @@
       <c r="Y15" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>44829</v>
       </c>
@@ -5661,7 +5707,7 @@
         <v>2023</v>
       </c>
       <c r="L16" s="9">
-        <v>3.680000066757202</v>
+        <v>3.6800000667572021</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -5696,8 +5742,11 @@
       <c r="Y16" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44676</v>
       </c>
@@ -5728,7 +5777,7 @@
         <v>2023</v>
       </c>
       <c r="L17" s="15">
-        <v>4.110000133514404</v>
+        <v>4.1100001335144043</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -5751,8 +5800,11 @@
       <c r="Y17" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>44917</v>
       </c>
@@ -5787,7 +5839,7 @@
         <v>2023</v>
       </c>
       <c r="L18" s="9">
-        <v>4.510000228881836</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5822,8 +5874,11 @@
       <c r="Y18" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44812</v>
       </c>
@@ -5858,7 +5913,7 @@
         <v>2023</v>
       </c>
       <c r="L19" s="15">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -5893,8 +5948,11 @@
       <c r="Y19" s="17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>44769</v>
       </c>
@@ -5929,7 +5987,7 @@
         <v>2023</v>
       </c>
       <c r="L20" s="9">
-        <v>3.819999933242798</v>
+        <v>3.8199999332427979</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -5960,8 +6018,11 @@
       <c r="Y20" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44858</v>
       </c>
@@ -6031,8 +6092,11 @@
       <c r="Y21" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>44888</v>
       </c>
@@ -6084,8 +6148,11 @@
       <c r="Y22" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44712</v>
       </c>
@@ -6120,7 +6187,7 @@
         <v>2023</v>
       </c>
       <c r="L23" s="15">
-        <v>4.53000020980835</v>
+        <v>4.5300002098083496</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -6151,8 +6218,11 @@
       <c r="Y23" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>44727</v>
       </c>
@@ -6216,8 +6286,11 @@
       <c r="Y24" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>44710</v>
       </c>
@@ -6283,8 +6356,11 @@
       <c r="Y25" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>44877</v>
       </c>
@@ -6352,8 +6428,11 @@
       <c r="Y26" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>44758</v>
       </c>
@@ -6421,8 +6500,11 @@
       <c r="Y27" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>44578</v>
       </c>
@@ -6482,8 +6564,11 @@
       <c r="Y28" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>44923</v>
       </c>
@@ -6518,7 +6603,7 @@
         <v>2023</v>
       </c>
       <c r="L29" s="15">
-        <v>3.859999895095825</v>
+        <v>3.8599998950958252</v>
       </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -6547,8 +6632,11 @@
       <c r="Y29" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="Z29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>44922</v>
       </c>
@@ -6583,7 +6671,7 @@
         <v>2023</v>
       </c>
       <c r="L30" s="9">
-        <v>4.150000095367432</v>
+        <v>4.1500000953674316</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -6614,8 +6702,11 @@
       <c r="Y30" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="Z30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>44670</v>
       </c>
@@ -6650,7 +6741,7 @@
         <v>2023</v>
       </c>
       <c r="L31" s="15">
-        <v>3.359999895095825</v>
+        <v>3.3599998950958252</v>
       </c>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
@@ -6679,8 +6770,11 @@
       <c r="Y31" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>44710</v>
       </c>
@@ -6734,8 +6828,11 @@
       <c r="Y32" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>44915</v>
       </c>
@@ -6789,8 +6886,11 @@
       <c r="Y33" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>44596</v>
       </c>
@@ -6844,8 +6944,11 @@
       <c r="Y34" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>44592</v>
       </c>
@@ -6880,7 +6983,7 @@
         <v>2023</v>
       </c>
       <c r="L35" s="15">
-        <v>4.269999980926514</v>
+        <v>4.2699999809265137</v>
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
@@ -6911,8 +7014,11 @@
       <c r="Y35" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="Z35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>44591</v>
       </c>
@@ -6978,8 +7084,11 @@
       <c r="Y36" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>44755</v>
       </c>
@@ -7039,8 +7148,11 @@
       <c r="Y37" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>44779</v>
       </c>
@@ -7075,7 +7187,7 @@
         <v>2023</v>
       </c>
       <c r="L38" s="9">
-        <v>4.03000020980835</v>
+        <v>4.0300002098083496</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -7104,8 +7216,11 @@
       <c r="Y38" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>44798</v>
       </c>
@@ -7140,7 +7255,7 @@
         <v>2023</v>
       </c>
       <c r="L39" s="15">
-        <v>4.420000076293945</v>
+        <v>4.4200000762939453</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
@@ -7169,8 +7284,11 @@
       <c r="Y39" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>44730</v>
       </c>
@@ -7238,8 +7356,11 @@
       <c r="Y40" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="Z40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>44667</v>
       </c>
@@ -7270,7 +7391,7 @@
         <v>2023</v>
       </c>
       <c r="L41" s="15">
-        <v>3.569999933242798</v>
+        <v>3.5699999332427979</v>
       </c>
       <c r="M41" s="13">
         <v>185</v>
@@ -7297,8 +7418,11 @@
       <c r="Y41" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="Z41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>44926</v>
       </c>
@@ -7329,7 +7453,7 @@
         <v>2023</v>
       </c>
       <c r="L42" s="9">
-        <v>4.349999904632568</v>
+        <v>4.3499999046325684</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -7354,8 +7478,11 @@
       <c r="Y42" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="Z42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>44664</v>
       </c>
@@ -7390,7 +7517,7 @@
         <v>2023</v>
       </c>
       <c r="L43" s="15">
-        <v>5.170000076293945</v>
+        <v>5.1700000762939453</v>
       </c>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
@@ -7421,8 +7548,11 @@
       <c r="Y43" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="Z43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>44786</v>
       </c>
@@ -7453,7 +7583,7 @@
         <v>2023</v>
       </c>
       <c r="L44" s="9">
-        <v>4.260000228881836</v>
+        <v>4.2600002288818359</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -7480,8 +7610,11 @@
       <c r="Y44" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="Z44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44589</v>
       </c>
@@ -7535,8 +7668,11 @@
       <c r="Y45" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>44586</v>
       </c>
@@ -7571,7 +7707,7 @@
         <v>2023</v>
       </c>
       <c r="L46" s="9">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -7602,8 +7738,11 @@
       <c r="Y46" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>44639</v>
       </c>
@@ -7673,8 +7812,11 @@
       <c r="Y47" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="Z47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>44584</v>
       </c>
@@ -7742,8 +7884,11 @@
       <c r="Y48" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="Z48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>44705</v>
       </c>
@@ -7774,7 +7919,7 @@
         <v>2023</v>
       </c>
       <c r="L49" s="15">
-        <v>4.539999961853027</v>
+        <v>4.5399999618530273</v>
       </c>
       <c r="M49" s="13">
         <v>8</v>
@@ -7801,8 +7946,11 @@
       <c r="Y49" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>44814</v>
       </c>
@@ -7837,7 +7985,7 @@
         <v>2023</v>
       </c>
       <c r="L50" s="9">
-        <v>3.609999895095825</v>
+        <v>3.6099998950958252</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -7866,8 +8014,11 @@
       <c r="Y50" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="Z50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>44563</v>
       </c>
@@ -7902,7 +8053,7 @@
         <v>2023</v>
       </c>
       <c r="L51" s="15">
-        <v>4.389999866485596</v>
+        <v>4.3899998664855957</v>
       </c>
       <c r="M51" s="13">
         <v>44</v>
@@ -7935,8 +8086,11 @@
       <c r="Y51" s="17" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="Z51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>44719</v>
       </c>
@@ -7971,7 +8125,7 @@
         <v>2023</v>
       </c>
       <c r="L52" s="9">
-        <v>3.759999990463257</v>
+        <v>3.7599999904632568</v>
       </c>
       <c r="M52" s="7">
         <v>118</v>
@@ -8004,8 +8158,11 @@
       <c r="Y52" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>44771</v>
       </c>
@@ -8040,7 +8197,7 @@
         <v>2023</v>
       </c>
       <c r="L53" s="15">
-        <v>4.150000095367432</v>
+        <v>4.1500000953674316</v>
       </c>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
@@ -8069,8 +8226,11 @@
       <c r="Y53" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="Z53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>44698</v>
       </c>
@@ -8105,7 +8265,7 @@
         <v>2023</v>
       </c>
       <c r="L54" s="9">
-        <v>4.139999866485596</v>
+        <v>4.1399998664855957</v>
       </c>
       <c r="M54" s="7">
         <v>12</v>
@@ -8140,8 +8300,11 @@
       <c r="Y54" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="Z54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>44819</v>
       </c>
@@ -8207,8 +8370,11 @@
       <c r="Y55" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="Z55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>44748</v>
       </c>
@@ -8272,8 +8438,11 @@
       <c r="Y56" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="Z56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>44864</v>
       </c>
@@ -8304,7 +8473,7 @@
         <v>2023</v>
       </c>
       <c r="L57" s="15">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
@@ -8327,8 +8496,11 @@
       <c r="Y57" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="Z57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>44608</v>
       </c>
@@ -8392,8 +8564,11 @@
       <c r="Y58" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="Z58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>44905</v>
       </c>
@@ -8459,8 +8634,11 @@
       <c r="Y59" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="Z59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>44667</v>
       </c>
@@ -8491,7 +8669,7 @@
         <v>2023</v>
       </c>
       <c r="L60" s="9">
-        <v>4.539999961853027</v>
+        <v>4.5399999618530273</v>
       </c>
       <c r="M60" s="7">
         <v>8</v>
@@ -8518,8 +8696,11 @@
       <c r="Y60" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="Z60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>44852</v>
       </c>
@@ -8554,7 +8735,7 @@
         <v>2023</v>
       </c>
       <c r="L61" s="15">
-        <v>3.890000104904175</v>
+        <v>3.8900001049041748</v>
       </c>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
@@ -8583,8 +8764,11 @@
       <c r="Y61" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="Z61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>44902</v>
       </c>
@@ -8619,7 +8803,7 @@
         <v>2023</v>
       </c>
       <c r="L62" s="9">
-        <v>3.609999895095825</v>
+        <v>3.6099998950958252</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -8648,8 +8832,11 @@
       <c r="Y62" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>44922</v>
       </c>
@@ -8684,7 +8871,7 @@
         <v>2023</v>
       </c>
       <c r="L63" s="15">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
@@ -8715,8 +8902,11 @@
       <c r="Y63" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="Z63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44675</v>
       </c>
@@ -8774,8 +8964,11 @@
       <c r="Y64" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="Z64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>44778</v>
       </c>
@@ -8845,8 +9038,11 @@
       <c r="Y65" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="Z65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44590</v>
       </c>
@@ -8910,8 +9106,11 @@
       <c r="Y66" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>44579</v>
       </c>
@@ -8975,8 +9174,11 @@
       <c r="Y67" s="17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="Z67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44912</v>
       </c>
@@ -9040,8 +9242,11 @@
       <c r="Y68" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="Z68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44721</v>
       </c>
@@ -9076,7 +9281,7 @@
         <v>2023</v>
       </c>
       <c r="L69" s="15">
-        <v>3.700000047683716</v>
+        <v>3.7000000476837158</v>
       </c>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -9107,8 +9312,11 @@
       <c r="Y69" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="Z69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44803</v>
       </c>
@@ -9143,7 +9351,7 @@
         <v>2023</v>
       </c>
       <c r="L70" s="9">
-        <v>3.990000009536743</v>
+        <v>3.9900000095367432</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -9178,8 +9386,11 @@
       <c r="Y70" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="Z70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>44709</v>
       </c>
@@ -9214,7 +9425,7 @@
         <v>2023</v>
       </c>
       <c r="L71" s="15">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
@@ -9243,8 +9454,11 @@
       <c r="Y71" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="Z71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44746</v>
       </c>
@@ -9306,8 +9520,11 @@
       <c r="Y72" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="Z72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>44634</v>
       </c>
@@ -9371,8 +9588,11 @@
       <c r="Y73" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="Z73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44880</v>
       </c>
@@ -9442,8 +9662,11 @@
       <c r="Y74" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="Z74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>44571</v>
       </c>
@@ -9478,7 +9701,7 @@
         <v>2023</v>
       </c>
       <c r="L75" s="15">
-        <v>4.349999904632568</v>
+        <v>4.3499999046325684</v>
       </c>
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
@@ -9509,8 +9732,11 @@
       <c r="Y75" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="Z75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>44774</v>
       </c>
@@ -9545,7 +9771,7 @@
         <v>2023</v>
       </c>
       <c r="L76" s="9">
-        <v>3.549999952316284</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -9574,8 +9800,11 @@
       <c r="Y76" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="Z76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>44794</v>
       </c>
@@ -9643,8 +9872,11 @@
       <c r="Y77" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="Z77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>44731</v>
       </c>
@@ -9679,7 +9911,7 @@
         <v>2023</v>
       </c>
       <c r="L78" s="9">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M78" s="7">
         <v>4</v>
@@ -9712,8 +9944,11 @@
       <c r="Y78" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="Z78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>44664</v>
       </c>
@@ -9767,8 +10002,11 @@
       <c r="Y79" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="Z79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>44840</v>
       </c>
@@ -9832,8 +10070,11 @@
       <c r="Y80" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="Z80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>44614</v>
       </c>
@@ -9868,7 +10109,7 @@
         <v>2023</v>
       </c>
       <c r="L81" s="15">
-        <v>4.670000076293945</v>
+        <v>4.6700000762939453</v>
       </c>
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
@@ -9899,8 +10140,11 @@
       <c r="Y81" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="Z81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44620</v>
       </c>
@@ -9935,7 +10179,7 @@
         <v>2023</v>
       </c>
       <c r="L82" s="9">
-        <v>3.549999952316284</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="M82" s="7">
         <v>36</v>
@@ -9968,8 +10212,11 @@
       <c r="Y82" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="Z82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>44906</v>
       </c>
@@ -10004,7 +10251,7 @@
         <v>2023</v>
       </c>
       <c r="L83" s="15">
-        <v>4.739999771118164</v>
+        <v>4.7399997711181641</v>
       </c>
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
@@ -10033,8 +10280,11 @@
       <c r="Y83" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="Z83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>44741</v>
       </c>
@@ -10098,8 +10348,11 @@
       <c r="Y84" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="Z84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>44726</v>
       </c>
@@ -10157,8 +10410,11 @@
       <c r="Y85" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="Z85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>44562</v>
       </c>
@@ -10216,8 +10472,11 @@
         <v>446</v>
       </c>
       <c r="Y86" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="Z86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>44827</v>
       </c>
@@ -10252,7 +10511,7 @@
         <v>2023</v>
       </c>
       <c r="L87" s="15">
-        <v>4.139999866485596</v>
+        <v>4.1399998664855957</v>
       </c>
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
@@ -10283,8 +10542,11 @@
       <c r="Y87" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="Z87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>44715</v>
       </c>
@@ -10319,7 +10581,7 @@
         <v>2023</v>
       </c>
       <c r="L88" s="9">
-        <v>4.71999979019165</v>
+        <v>4.7199997901916504</v>
       </c>
       <c r="M88" s="7">
         <v>15</v>
@@ -10354,8 +10616,11 @@
       <c r="Y88" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="Z88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>44662</v>
       </c>
@@ -10390,7 +10655,7 @@
         <v>2023</v>
       </c>
       <c r="L89" s="15">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
@@ -10419,8 +10684,11 @@
       <c r="Y89" s="17" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="Z89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>44732</v>
       </c>
@@ -10455,7 +10723,7 @@
         <v>2023</v>
       </c>
       <c r="L90" s="9">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -10486,8 +10754,11 @@
       <c r="Y90" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="Z90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>44905</v>
       </c>
@@ -10557,8 +10828,11 @@
       <c r="Y91" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="Z91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>44582</v>
       </c>
@@ -10593,7 +10867,7 @@
         <v>2023</v>
       </c>
       <c r="L92" s="9">
-        <v>4.210000038146973</v>
+        <v>4.2100000381469727</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
@@ -10624,8 +10898,11 @@
       <c r="Y92" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="Z92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>44569</v>
       </c>
@@ -10689,8 +10966,11 @@
       <c r="Y93" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="Z93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>44729</v>
       </c>
@@ -10756,8 +11036,11 @@
       <c r="Y94" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="Z94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>44783</v>
       </c>
@@ -10811,8 +11094,11 @@
       <c r="Y95" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="Z95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>44719</v>
       </c>
@@ -10884,8 +11170,11 @@
       <c r="Y96" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="Z96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>44649</v>
       </c>
@@ -10916,7 +11205,7 @@
         <v>2023</v>
       </c>
       <c r="L97" s="15">
-        <v>3.819999933242798</v>
+        <v>3.8199999332427979</v>
       </c>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
@@ -10939,8 +11228,11 @@
       <c r="Y97" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="Z97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>44594</v>
       </c>
@@ -10975,7 +11267,7 @@
         <v>2023</v>
       </c>
       <c r="L98" s="9">
-        <v>4.590000152587891</v>
+        <v>4.5900001525878906</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -11006,8 +11298,11 @@
       <c r="Y98" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="Z98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>44613</v>
       </c>
@@ -11061,8 +11356,11 @@
       <c r="Y99" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="Z99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>44920</v>
       </c>
@@ -11132,8 +11430,11 @@
       <c r="Y100" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="Z100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>44587</v>
       </c>
@@ -11168,7 +11469,7 @@
         <v>2023</v>
       </c>
       <c r="L101" s="15">
-        <v>3.950000047683716</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
@@ -11197,8 +11498,11 @@
       <c r="Y101" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="Z101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>44613</v>
       </c>
@@ -11252,8 +11556,11 @@
       <c r="Y102" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="Z102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>44644</v>
       </c>
@@ -11288,7 +11595,7 @@
         <v>2023</v>
       </c>
       <c r="L103" s="15">
-        <v>4.239999771118164</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
@@ -11319,8 +11626,11 @@
       <c r="Y103" s="17" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="Z103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>44633</v>
       </c>
@@ -11390,8 +11700,11 @@
       <c r="Y104" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="Z104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>44855</v>
       </c>
@@ -11455,8 +11768,11 @@
       <c r="Y105" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="Z105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>44831</v>
       </c>
@@ -11491,7 +11807,7 @@
         <v>2023</v>
       </c>
       <c r="L106" s="9">
-        <v>4.28000020980835</v>
+        <v>4.2800002098083496</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
@@ -11522,8 +11838,11 @@
       <c r="Y106" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="Z106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>44726</v>
       </c>
@@ -11577,8 +11896,11 @@
       <c r="Y107" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="Z107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>44726</v>
       </c>
@@ -11613,7 +11935,7 @@
         <v>2023</v>
       </c>
       <c r="L108" s="9">
-        <v>4.170000076293945</v>
+        <v>4.1700000762939453</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
@@ -11644,8 +11966,11 @@
       <c r="Y108" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="Z108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>44563</v>
       </c>
@@ -11699,8 +12024,11 @@
       <c r="Y109" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="Z109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>44925</v>
       </c>
@@ -11735,7 +12063,7 @@
         <v>2023</v>
       </c>
       <c r="L110" s="9">
-        <v>4.010000228881836</v>
+        <v>4.0100002288818359</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
@@ -11766,8 +12094,11 @@
       <c r="Y110" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="Z110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>44732</v>
       </c>
@@ -11802,7 +12133,7 @@
         <v>2023</v>
       </c>
       <c r="L111" s="15">
-        <v>3.859999895095825</v>
+        <v>3.8599998950958252</v>
       </c>
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
@@ -11831,8 +12162,11 @@
       <c r="Y111" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="Z111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>44683</v>
       </c>
@@ -11900,8 +12234,11 @@
       <c r="Y112" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="Z112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44578</v>
       </c>
@@ -11936,7 +12273,7 @@
         <v>2023</v>
       </c>
       <c r="L113" s="15">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
@@ -11967,8 +12304,11 @@
       <c r="Y113" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="Z113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>44899</v>
       </c>
@@ -12020,8 +12360,11 @@
       <c r="Y114" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="Z114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>44585</v>
       </c>
@@ -12056,7 +12399,7 @@
         <v>2023</v>
       </c>
       <c r="L115" s="15">
-        <v>4.349999904632568</v>
+        <v>4.3499999046325684</v>
       </c>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
@@ -12087,8 +12430,11 @@
       <c r="Y115" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="Z115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>44899</v>
       </c>
@@ -12154,8 +12500,11 @@
       <c r="Y116" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="Z116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>44865</v>
       </c>
@@ -12219,8 +12568,11 @@
       <c r="Y117" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="Z117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>44759</v>
       </c>
@@ -12251,7 +12603,7 @@
         <v>2023</v>
       </c>
       <c r="L118" s="9">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
@@ -12276,8 +12628,11 @@
       <c r="Y118" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="Z118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>44780</v>
       </c>
@@ -12312,7 +12667,7 @@
         <v>2023</v>
       </c>
       <c r="L119" s="15">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
@@ -12341,8 +12696,11 @@
       <c r="Y119" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="Z119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>44708</v>
       </c>
@@ -12377,7 +12735,7 @@
         <v>2023</v>
       </c>
       <c r="L120" s="9">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
@@ -12408,8 +12766,11 @@
       <c r="Y120" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="Z120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>44916</v>
       </c>
@@ -12467,8 +12828,11 @@
       <c r="Y121" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="Z121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>44646</v>
       </c>
@@ -12503,7 +12867,7 @@
         <v>2023</v>
       </c>
       <c r="L122" s="9">
-        <v>3.359999895095825</v>
+        <v>3.3599998950958252</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
@@ -12532,8 +12896,11 @@
       <c r="Y122" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="Z122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>44743</v>
       </c>
@@ -12564,7 +12931,7 @@
         <v>2023</v>
       </c>
       <c r="L123" s="15">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
@@ -12589,8 +12956,11 @@
       <c r="Y123" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="Z123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>44845</v>
       </c>
@@ -12621,7 +12991,7 @@
         <v>2023</v>
       </c>
       <c r="L124" s="9">
-        <v>3.930000066757202</v>
+        <v>3.9300000667572021</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
@@ -12644,8 +13014,11 @@
       <c r="Y124" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="Z124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>44732</v>
       </c>
@@ -12680,7 +13053,7 @@
         <v>2023</v>
       </c>
       <c r="L125" s="15">
-        <v>4.360000133514404</v>
+        <v>4.3600001335144043</v>
       </c>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -12711,8 +13084,11 @@
       <c r="Y125" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="Z125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>44654</v>
       </c>
@@ -12747,7 +13123,7 @@
         <v>2023</v>
       </c>
       <c r="L126" s="9">
-        <v>4.269999980926514</v>
+        <v>4.2699999809265137</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
@@ -12778,8 +13154,11 @@
       <c r="Y126" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="Z126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>44752</v>
       </c>
@@ -12814,7 +13193,7 @@
         <v>2023</v>
       </c>
       <c r="L127" s="15">
-        <v>4.389999866485596</v>
+        <v>4.3899998664855957</v>
       </c>
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
@@ -12851,8 +13230,11 @@
       <c r="Y127" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="Z127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>44774</v>
       </c>
@@ -12883,7 +13265,7 @@
         <v>2023</v>
       </c>
       <c r="L128" s="9">
-        <v>4.269999980926514</v>
+        <v>4.2699999809265137</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
@@ -12906,8 +13288,11 @@
       <c r="Y128" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="Z128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>44572</v>
       </c>
@@ -12942,7 +13327,7 @@
         <v>2023</v>
       </c>
       <c r="L129" s="15">
-        <v>3.890000104904175</v>
+        <v>3.8900001049041748</v>
       </c>
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
@@ -12971,8 +13356,11 @@
       <c r="Y129" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="Z129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>44902</v>
       </c>
@@ -13036,8 +13424,11 @@
       <c r="Y130" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="Z130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44564</v>
       </c>
@@ -13068,7 +13459,7 @@
         <v>2023</v>
       </c>
       <c r="L131" s="15">
-        <v>4.300000190734863</v>
+        <v>4.3000001907348633</v>
       </c>
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
@@ -13091,8 +13482,11 @@
       <c r="Y131" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="Z131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>44654</v>
       </c>
@@ -13148,8 +13542,11 @@
       <c r="Y132" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="Z132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>44565</v>
       </c>
@@ -13184,7 +13581,7 @@
         <v>2023</v>
       </c>
       <c r="L133" s="15">
-        <v>4.03000020980835</v>
+        <v>4.0300002098083496</v>
       </c>
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
@@ -13213,8 +13610,11 @@
       <c r="Y133" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="Z133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>44772</v>
       </c>
@@ -13268,8 +13668,11 @@
       <c r="Y134" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="Z134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>44806</v>
       </c>
@@ -13304,7 +13707,7 @@
         <v>2023</v>
       </c>
       <c r="L135" s="15">
-        <v>4.050000190734863</v>
+        <v>4.0500001907348633</v>
       </c>
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
@@ -13333,8 +13736,11 @@
       <c r="Y135" s="17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="Z135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>44574</v>
       </c>
@@ -13398,8 +13804,11 @@
       <c r="Y136" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="Z136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>44804</v>
       </c>
@@ -13453,8 +13862,11 @@
       <c r="Y137" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="Z137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>44867</v>
       </c>
@@ -13522,8 +13934,11 @@
       <c r="Y138" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="Z138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>44617</v>
       </c>
@@ -13558,7 +13973,7 @@
         <v>2023</v>
       </c>
       <c r="L139" s="15">
-        <v>3.569999933242798</v>
+        <v>3.5699999332427979</v>
       </c>
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
@@ -13587,8 +14002,11 @@
       <c r="Y139" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="Z139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>44924</v>
       </c>
@@ -13642,8 +14060,11 @@
       <c r="Y140" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="Z140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>44917</v>
       </c>
@@ -13678,7 +14099,7 @@
         <v>2023</v>
       </c>
       <c r="L141" s="15">
-        <v>3.930000066757202</v>
+        <v>3.9300000667572021</v>
       </c>
       <c r="M141" s="13">
         <v>13</v>
@@ -13711,8 +14132,11 @@
       <c r="Y141" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="Z141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>44800</v>
       </c>
@@ -13747,7 +14171,7 @@
         <v>2023</v>
       </c>
       <c r="L142" s="9">
-        <v>4.239999771118164</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="M142" s="7">
         <v>99</v>
@@ -13780,8 +14204,11 @@
       <c r="Y142" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="Z142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>44758</v>
       </c>
@@ -13845,8 +14272,11 @@
       <c r="Y143" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="Z143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>44803</v>
       </c>
@@ -13912,8 +14342,11 @@
       <c r="Y144" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="Z144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>44771</v>
       </c>
@@ -13948,7 +14381,7 @@
         <v>2023</v>
       </c>
       <c r="L145" s="15">
-        <v>3.930000066757202</v>
+        <v>3.9300000667572021</v>
       </c>
       <c r="M145" s="13">
         <v>19</v>
@@ -13981,8 +14414,11 @@
       <c r="Y145" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="Z145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>44697</v>
       </c>
@@ -14050,8 +14486,11 @@
       <c r="Y146" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="Z146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>44881</v>
       </c>
@@ -14105,8 +14544,11 @@
       <c r="Y147" s="17" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="Z147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>44868</v>
       </c>
@@ -14141,7 +14583,7 @@
         <v>2023</v>
       </c>
       <c r="L148" s="9">
-        <v>4.269999980926514</v>
+        <v>4.2699999809265137</v>
       </c>
       <c r="M148" s="7">
         <v>122</v>
@@ -14176,8 +14618,11 @@
       <c r="Y148" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="Z148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44709</v>
       </c>
@@ -14241,8 +14686,11 @@
       <c r="Y149" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="Z149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>44844</v>
       </c>
@@ -14277,7 +14725,7 @@
         <v>2023</v>
       </c>
       <c r="L150" s="9">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
@@ -14308,8 +14756,11 @@
       <c r="Y150" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="Z150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>44637</v>
       </c>
@@ -14344,7 +14795,7 @@
         <v>2023</v>
       </c>
       <c r="L151" s="15">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="M151" s="13">
         <v>7</v>
@@ -14385,8 +14836,11 @@
       <c r="Y151" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="Z151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>44675</v>
       </c>
@@ -14417,7 +14871,7 @@
         <v>2023</v>
       </c>
       <c r="L152" s="9">
-        <v>4.389999866485596</v>
+        <v>4.3899998664855957</v>
       </c>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
@@ -14440,8 +14894,11 @@
       <c r="Y152" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="Z152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>44921</v>
       </c>
@@ -14472,7 +14929,7 @@
         <v>2023</v>
       </c>
       <c r="L153" s="15">
-        <v>3.609999895095825</v>
+        <v>3.6099998950958252</v>
       </c>
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
@@ -14497,8 +14954,11 @@
       <c r="Y153" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="Z153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>44860</v>
       </c>
@@ -14533,7 +14993,7 @@
         <v>2023</v>
       </c>
       <c r="L154" s="9">
-        <v>3.890000104904175</v>
+        <v>3.8900001049041748</v>
       </c>
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
@@ -14562,8 +15022,11 @@
       <c r="Y154" s="11" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="Z154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>44807</v>
       </c>
@@ -14598,7 +15061,7 @@
         <v>2023</v>
       </c>
       <c r="L155" s="15">
-        <v>4.289999961853027</v>
+        <v>4.2899999618530273</v>
       </c>
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
@@ -14629,8 +15092,11 @@
       <c r="Y155" s="17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="Z155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>44583</v>
       </c>
@@ -14665,7 +15131,7 @@
         <v>2023</v>
       </c>
       <c r="L156" s="9">
-        <v>4.139999866485596</v>
+        <v>4.1399998664855957</v>
       </c>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
@@ -14694,8 +15160,11 @@
       <c r="Y156" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="Z156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>44624</v>
       </c>
@@ -14765,8 +15234,11 @@
       <c r="Y157" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="Z157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>44807</v>
       </c>
@@ -14801,7 +15273,7 @@
         <v>2023</v>
       </c>
       <c r="L158" s="9">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
@@ -14830,8 +15302,11 @@
       <c r="Y158" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="Z158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>44572</v>
       </c>
@@ -14899,8 +15374,11 @@
       <c r="Y159" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="Z159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>44620</v>
       </c>
@@ -14960,8 +15438,11 @@
         <v>761</v>
       </c>
       <c r="Y160" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="Z160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>44655</v>
       </c>
@@ -14996,7 +15477,7 @@
         <v>2023</v>
       </c>
       <c r="L161" s="15">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
@@ -15027,8 +15508,11 @@
       <c r="Y161" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="Z161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>44608</v>
       </c>
@@ -15059,7 +15543,7 @@
         <v>2023</v>
       </c>
       <c r="L162" s="9">
-        <v>4.389999866485596</v>
+        <v>4.3899998664855957</v>
       </c>
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
@@ -15082,8 +15566,11 @@
       <c r="Y162" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="Z162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>44834</v>
       </c>
@@ -15114,7 +15601,7 @@
         <v>2023</v>
       </c>
       <c r="L163" s="15">
-        <v>3.509999990463257</v>
+        <v>3.5099999904632568</v>
       </c>
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
@@ -15137,8 +15624,11 @@
       <c r="Y163" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="Z163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>44874</v>
       </c>
@@ -15173,7 +15663,7 @@
         <v>2023</v>
       </c>
       <c r="L164" s="9">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
@@ -15210,8 +15700,11 @@
       <c r="Y164" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="Z164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>44677</v>
       </c>
@@ -15283,8 +15776,11 @@
       <c r="Y165" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="Z165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>44619</v>
       </c>
@@ -15319,7 +15815,7 @@
         <v>2023</v>
       </c>
       <c r="L166" s="9">
-        <v>4.670000076293945</v>
+        <v>4.6700000762939453</v>
       </c>
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
@@ -15350,8 +15846,11 @@
       <c r="Y166" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="Z166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>44755</v>
       </c>
@@ -15411,8 +15910,11 @@
         <v>786</v>
       </c>
       <c r="Y167" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="Z167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>44704</v>
       </c>
@@ -15447,7 +15949,7 @@
         <v>2023</v>
       </c>
       <c r="L168" s="9">
-        <v>3.359999895095825</v>
+        <v>3.3599998950958252</v>
       </c>
       <c r="M168" s="7">
         <v>360</v>
@@ -15480,8 +15982,11 @@
       <c r="Y168" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="Z168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>44597</v>
       </c>
@@ -15516,7 +16021,7 @@
         <v>2023</v>
       </c>
       <c r="L169" s="15">
-        <v>3.859999895095825</v>
+        <v>3.8599998950958252</v>
       </c>
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
@@ -15545,8 +16050,11 @@
       <c r="Y169" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="Z169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>44594</v>
       </c>
@@ -15610,8 +16118,11 @@
       <c r="Y170" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="Z170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>44859</v>
       </c>
@@ -15669,8 +16180,11 @@
         <v>805</v>
       </c>
       <c r="Y171" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="Z171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>44710</v>
       </c>
@@ -15705,7 +16219,7 @@
         <v>2023</v>
       </c>
       <c r="L172" s="9">
-        <v>4.039999961853027</v>
+        <v>4.0399999618530273</v>
       </c>
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
@@ -15734,8 +16248,11 @@
       <c r="Y172" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="Z172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>44920</v>
       </c>
@@ -15770,7 +16287,7 @@
         <v>2023</v>
       </c>
       <c r="L173" s="15">
-        <v>3.759999990463257</v>
+        <v>3.7599999904632568</v>
       </c>
       <c r="M173" s="13">
         <v>115</v>
@@ -15803,8 +16320,11 @@
       <c r="Y173" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="Z173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>44920</v>
       </c>
@@ -15839,7 +16359,7 @@
         <v>2023</v>
       </c>
       <c r="L174" s="9">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
@@ -15870,8 +16390,11 @@
       <c r="Y174" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="Z174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>44713</v>
       </c>
@@ -15906,7 +16429,7 @@
         <v>2023</v>
       </c>
       <c r="L175" s="15">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
@@ -15937,8 +16460,11 @@
       <c r="Y175" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="Z175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>44783</v>
       </c>
@@ -15973,7 +16499,7 @@
         <v>2023</v>
       </c>
       <c r="L176" s="9">
-        <v>4.050000190734863</v>
+        <v>4.0500001907348633</v>
       </c>
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
@@ -16002,8 +16528,11 @@
       <c r="Y176" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="Z176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>44680</v>
       </c>
@@ -16038,7 +16567,7 @@
         <v>2023</v>
       </c>
       <c r="L177" s="15">
-        <v>3.549999952316284</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
@@ -16067,8 +16596,11 @@
       <c r="Y177" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="Z177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>44571</v>
       </c>
@@ -16103,7 +16635,7 @@
         <v>2023</v>
       </c>
       <c r="L178" s="9">
-        <v>3.930000066757202</v>
+        <v>3.9300000667572021</v>
       </c>
       <c r="M178" s="7">
         <v>13</v>
@@ -16136,8 +16668,11 @@
       <c r="Y178" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="Z178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>44905</v>
       </c>
@@ -16209,8 +16744,11 @@
       <c r="Y179" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="Z179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>44728</v>
       </c>
@@ -16270,8 +16808,11 @@
       <c r="Y180" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="Z180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>44571</v>
       </c>
@@ -16306,7 +16847,7 @@
         <v>2023</v>
       </c>
       <c r="L181" s="15">
-        <v>4.28000020980835</v>
+        <v>4.2800002098083496</v>
       </c>
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
@@ -16337,8 +16878,11 @@
       <c r="Y181" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="Z181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>44785</v>
       </c>
@@ -16373,7 +16917,7 @@
         <v>2023</v>
       </c>
       <c r="L182" s="9">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M182" s="10"/>
       <c r="N182" s="10"/>
@@ -16402,8 +16946,11 @@
       <c r="Y182" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="Z182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>44574</v>
       </c>
@@ -16438,7 +16985,7 @@
         <v>2023</v>
       </c>
       <c r="L183" s="15">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M183" s="13">
         <v>83</v>
@@ -16471,8 +17018,11 @@
       <c r="Y183" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="Z183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>44612</v>
       </c>
@@ -16542,8 +17092,11 @@
       <c r="Y184" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="Z184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>44910</v>
       </c>
@@ -16578,7 +17131,7 @@
         <v>2023</v>
       </c>
       <c r="L185" s="15">
-        <v>3.950000047683716</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="M185" s="13">
         <v>15</v>
@@ -16611,8 +17164,11 @@
       <c r="Y185" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="Z185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>44806</v>
       </c>
@@ -16676,8 +17232,11 @@
       <c r="Y186" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="Z186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>44781</v>
       </c>
@@ -16712,7 +17271,7 @@
         <v>2023</v>
       </c>
       <c r="L187" s="15">
-        <v>3.819999933242798</v>
+        <v>3.8199999332427979</v>
       </c>
       <c r="M187" s="13">
         <v>93</v>
@@ -16745,8 +17304,11 @@
       <c r="Y187" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="Z187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>44642</v>
       </c>
@@ -16804,8 +17366,11 @@
       <c r="Y188" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="Z188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>44627</v>
       </c>
@@ -16840,7 +17405,7 @@
         <v>2023</v>
       </c>
       <c r="L189" s="15">
-        <v>4.139999866485596</v>
+        <v>4.1399998664855957</v>
       </c>
       <c r="M189" s="13">
         <v>12</v>
@@ -16875,8 +17440,11 @@
       <c r="Y189" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="Z189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>44628</v>
       </c>
@@ -16911,7 +17479,7 @@
         <v>2023</v>
       </c>
       <c r="L190" s="9">
-        <v>4.050000190734863</v>
+        <v>4.0500001907348633</v>
       </c>
       <c r="M190" s="7">
         <v>1</v>
@@ -16946,8 +17514,11 @@
       <c r="Y190" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="Z190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>44580</v>
       </c>
@@ -17005,8 +17576,11 @@
       <c r="Y191" s="17" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="Z191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>44580</v>
       </c>
@@ -17056,8 +17630,11 @@
         <v>887</v>
       </c>
       <c r="Y192" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+      <c r="Z192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>44916</v>
       </c>
@@ -17092,7 +17669,7 @@
         <v>2023</v>
       </c>
       <c r="L193" s="15">
-        <v>3.549999952316284</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
@@ -17121,8 +17698,11 @@
       <c r="Y193" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+      <c r="Z193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>44640</v>
       </c>
@@ -17157,7 +17737,7 @@
         <v>2023</v>
       </c>
       <c r="L194" s="9">
-        <v>4.239999771118164</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="M194" s="7">
         <v>99</v>
@@ -17190,8 +17770,11 @@
       <c r="Y194" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+      <c r="Z194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>44681</v>
       </c>
@@ -17226,7 +17809,7 @@
         <v>2023</v>
       </c>
       <c r="L195" s="15">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M195" s="13">
         <v>4</v>
@@ -17259,8 +17842,11 @@
       <c r="Y195" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+      <c r="Z195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>44796</v>
       </c>
@@ -17314,8 +17900,11 @@
       <c r="Y196" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+      <c r="Z196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>44807</v>
       </c>
@@ -17346,7 +17935,7 @@
         <v>2023</v>
       </c>
       <c r="L197" s="15">
-        <v>4.420000076293945</v>
+        <v>4.4200000762939453</v>
       </c>
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
@@ -17371,8 +17960,11 @@
       <c r="Y197" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+      <c r="Z197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>44875</v>
       </c>
@@ -17438,8 +18030,11 @@
       <c r="Y198" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+      <c r="Z198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>44920</v>
       </c>
@@ -17503,8 +18098,11 @@
       <c r="Y199" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+      <c r="Z199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>44562</v>
       </c>
@@ -17554,8 +18152,11 @@
         <v>918</v>
       </c>
       <c r="Y200" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="Z200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>44736</v>
       </c>
@@ -17619,8 +18220,11 @@
       <c r="Y201" s="17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+      <c r="Z201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>44718</v>
       </c>
@@ -17655,7 +18259,7 @@
         <v>2023</v>
       </c>
       <c r="L202" s="9">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M202" s="10"/>
       <c r="N202" s="10"/>
@@ -17686,8 +18290,11 @@
       <c r="Y202" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+      <c r="Z202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>44833</v>
       </c>
@@ -17747,8 +18354,11 @@
       <c r="Y203" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+      <c r="Z203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>44582</v>
       </c>
@@ -17814,8 +18424,11 @@
       <c r="Y204" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+      <c r="Z204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>44876</v>
       </c>
@@ -17873,8 +18486,11 @@
       <c r="Y205" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+      <c r="Z205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>44691</v>
       </c>
@@ -17909,7 +18525,7 @@
         <v>2023</v>
       </c>
       <c r="L206" s="9">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
@@ -17940,8 +18556,11 @@
       <c r="Y206" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+      <c r="Z206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>44633</v>
       </c>
@@ -17972,7 +18591,7 @@
         <v>2023</v>
       </c>
       <c r="L207" s="15">
-        <v>4.449999809265137</v>
+        <v>4.4499998092651367</v>
       </c>
       <c r="M207" s="13">
         <v>95</v>
@@ -17999,8 +18618,11 @@
       <c r="Y207" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+      <c r="Z207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>44879</v>
       </c>
@@ -18064,8 +18686,11 @@
       <c r="Y208" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+      <c r="Z208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>44790</v>
       </c>
@@ -18100,7 +18725,7 @@
         <v>2023</v>
       </c>
       <c r="L209" s="15">
-        <v>4.510000228881836</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="M209" s="16"/>
       <c r="N209" s="16"/>
@@ -18129,8 +18754,11 @@
       <c r="Y209" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+      <c r="Z209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>44747</v>
       </c>
@@ -18165,7 +18793,7 @@
         <v>2023</v>
       </c>
       <c r="L210" s="9">
-        <v>4.329999923706055</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="M210" s="7">
         <v>23</v>
@@ -18198,8 +18826,11 @@
       <c r="Y210" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+      <c r="Z210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>44864</v>
       </c>
@@ -18230,7 +18861,7 @@
         <v>2023</v>
       </c>
       <c r="L211" s="15">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="M211" s="13">
         <v>3</v>
@@ -18259,8 +18890,11 @@
       <c r="Y211" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+      <c r="Z211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>44574</v>
       </c>
@@ -18295,7 +18929,7 @@
         <v>2023</v>
       </c>
       <c r="L212" s="9">
-        <v>3.740000009536743</v>
+        <v>3.7400000095367432</v>
       </c>
       <c r="M212" s="10"/>
       <c r="N212" s="10"/>
@@ -18324,8 +18958,11 @@
       <c r="Y212" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+      <c r="Z212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>44860</v>
       </c>
@@ -18360,7 +18997,7 @@
         <v>2023</v>
       </c>
       <c r="L213" s="15">
-        <v>4.019999980926514</v>
+        <v>4.0199999809265137</v>
       </c>
       <c r="M213" s="13">
         <v>2</v>
@@ -18393,8 +19030,11 @@
       <c r="Y213" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+      <c r="Z213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>44724</v>
       </c>
@@ -18429,7 +19069,7 @@
         <v>2023</v>
       </c>
       <c r="L214" s="9">
-        <v>4.46999979019165</v>
+        <v>4.4699997901916504</v>
       </c>
       <c r="M214" s="10"/>
       <c r="N214" s="10"/>
@@ -18458,8 +19098,11 @@
       <c r="Y214" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+      <c r="Z214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>44877</v>
       </c>
@@ -18513,8 +19156,11 @@
       <c r="Y215" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+      <c r="Z215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>44695</v>
       </c>
@@ -18549,7 +19195,7 @@
         <v>2023</v>
       </c>
       <c r="L216" s="9">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M216" s="10"/>
       <c r="N216" s="10"/>
@@ -18580,8 +19226,11 @@
       <c r="Y216" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="Z216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>44848</v>
       </c>
@@ -18645,8 +19294,11 @@
       <c r="Y217" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+      <c r="Z217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>44667</v>
       </c>
@@ -18714,8 +19366,11 @@
       <c r="Y218" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+      <c r="Z218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>44884</v>
       </c>
@@ -18779,8 +19434,11 @@
       <c r="Y219" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+      <c r="Z219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>44867</v>
       </c>
@@ -18840,8 +19498,11 @@
         <v>887</v>
       </c>
       <c r="Y220" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+      <c r="Z220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>44582</v>
       </c>
@@ -18876,7 +19537,7 @@
         <v>2023</v>
       </c>
       <c r="L221" s="15">
-        <v>3.569999933242798</v>
+        <v>3.5699999332427979</v>
       </c>
       <c r="M221" s="16"/>
       <c r="N221" s="16"/>
@@ -18905,8 +19566,11 @@
       <c r="Y221" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+      <c r="Z221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>44685</v>
       </c>
@@ -18960,8 +19624,11 @@
       <c r="Y222" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
+      <c r="Z222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>44616</v>
       </c>
@@ -18996,7 +19663,7 @@
         <v>2023</v>
       </c>
       <c r="L223" s="15">
-        <v>4.019999980926514</v>
+        <v>4.0199999809265137</v>
       </c>
       <c r="M223" s="13">
         <v>2</v>
@@ -19029,8 +19696,11 @@
       <c r="Y223" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+      <c r="Z223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>44748</v>
       </c>
@@ -19065,7 +19735,7 @@
         <v>2023</v>
       </c>
       <c r="L224" s="9">
-        <v>3.950000047683716</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="M224" s="10"/>
       <c r="N224" s="10"/>
@@ -19094,8 +19764,11 @@
       <c r="Y224" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
+      <c r="Z224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>44896</v>
       </c>
@@ -19163,8 +19836,11 @@
       <c r="Y225" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+      <c r="Z225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>44634</v>
       </c>
@@ -19199,7 +19875,7 @@
         <v>2023</v>
       </c>
       <c r="L226" s="9">
-        <v>4.019999980926514</v>
+        <v>4.0199999809265137</v>
       </c>
       <c r="M226" s="7">
         <v>2</v>
@@ -19232,8 +19908,11 @@
       <c r="Y226" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+      <c r="Z226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>44574</v>
       </c>
@@ -19297,8 +19976,11 @@
       <c r="Y227" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+      <c r="Z227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>44719</v>
       </c>
@@ -19362,8 +20044,11 @@
       <c r="Y228" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+      <c r="Z228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>44906</v>
       </c>
@@ -19431,8 +20116,11 @@
       <c r="Y229" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+      <c r="Z229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>44839</v>
       </c>
@@ -19498,8 +20186,11 @@
       <c r="Y230" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+      <c r="Z230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
@@ -19565,8 +20256,11 @@
       <c r="Y231" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+      <c r="Z231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>44584</v>
       </c>
@@ -19601,7 +20295,7 @@
         <v>2023</v>
       </c>
       <c r="L232" s="9">
-        <v>3.930000066757202</v>
+        <v>3.9300000667572021</v>
       </c>
       <c r="M232" s="7">
         <v>19</v>
@@ -19634,8 +20328,11 @@
       <c r="Y232" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+      <c r="Z232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>44571</v>
       </c>
@@ -19699,8 +20396,11 @@
       <c r="Y233" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+      <c r="Z233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>44596</v>
       </c>
@@ -19768,8 +20468,11 @@
       <c r="Y234" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+      <c r="Z234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>44576</v>
       </c>
@@ -19804,7 +20507,7 @@
         <v>2023</v>
       </c>
       <c r="L235" s="15">
-        <v>4.150000095367432</v>
+        <v>4.1500000953674316</v>
       </c>
       <c r="M235" s="16"/>
       <c r="N235" s="16"/>
@@ -19833,8 +20536,11 @@
       <c r="Y235" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+      <c r="Z235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>44832</v>
       </c>
@@ -19869,7 +20575,7 @@
         <v>2023</v>
       </c>
       <c r="L236" s="9">
-        <v>4.210000038146973</v>
+        <v>4.2100000381469727</v>
       </c>
       <c r="M236" s="10"/>
       <c r="N236" s="10"/>
@@ -19900,8 +20606,11 @@
       <c r="Y236" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+      <c r="Z236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>44682</v>
       </c>
@@ -19967,8 +20676,11 @@
       <c r="Y237" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+      <c r="Z237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>44869</v>
       </c>
@@ -20032,8 +20744,11 @@
       <c r="Y238" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+      <c r="Z238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>44879</v>
       </c>
@@ -20068,7 +20783,7 @@
         <v>2023</v>
       </c>
       <c r="L239" s="15">
-        <v>4.010000228881836</v>
+        <v>4.0100002288818359</v>
       </c>
       <c r="M239" s="16"/>
       <c r="N239" s="16"/>
@@ -20099,8 +20814,11 @@
       <c r="Y239" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+      <c r="Z239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>44752</v>
       </c>
@@ -20135,7 +20853,7 @@
         <v>2023</v>
       </c>
       <c r="L240" s="9">
-        <v>3.890000104904175</v>
+        <v>3.8900001049041748</v>
       </c>
       <c r="M240" s="10"/>
       <c r="N240" s="10"/>
@@ -20164,8 +20882,11 @@
       <c r="Y240" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+      <c r="Z240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>44565</v>
       </c>
@@ -20200,7 +20921,7 @@
         <v>2023</v>
       </c>
       <c r="L241" s="15">
-        <v>4.590000152587891</v>
+        <v>4.5900001525878906</v>
       </c>
       <c r="M241" s="16"/>
       <c r="N241" s="16"/>
@@ -20231,8 +20952,11 @@
       <c r="Y241" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
+      <c r="Z241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>44817</v>
       </c>
@@ -20296,8 +21020,11 @@
       <c r="Y242" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+      <c r="Z242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>44923</v>
       </c>
@@ -20363,8 +21090,11 @@
       <c r="Y243" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
+      <c r="Z243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>44689</v>
       </c>
@@ -20434,8 +21164,11 @@
       <c r="Y244" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+      <c r="Z244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>44591</v>
       </c>
@@ -20503,8 +21236,11 @@
       <c r="Y245" s="17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+      <c r="Z245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>44580</v>
       </c>
@@ -20574,8 +21310,11 @@
       <c r="Y246" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+      <c r="Z246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>44709</v>
       </c>
@@ -20633,8 +21372,11 @@
       <c r="Y247" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+      <c r="Z247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>44766</v>
       </c>
@@ -20690,8 +21432,11 @@
       <c r="Y248" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+      <c r="Z248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>44911</v>
       </c>
@@ -20755,8 +21500,11 @@
       <c r="Y249" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
+      <c r="Z249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>44643</v>
       </c>
@@ -20810,8 +21558,11 @@
       <c r="Y250" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+      <c r="Z250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>44670</v>
       </c>
@@ -20875,8 +21626,11 @@
       <c r="Y251" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
+      <c r="Z251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>44909</v>
       </c>
@@ -20911,7 +21665,7 @@
         <v>2023</v>
       </c>
       <c r="L252" s="9">
-        <v>4.360000133514404</v>
+        <v>4.3600001335144043</v>
       </c>
       <c r="M252" s="10"/>
       <c r="N252" s="10"/>
@@ -20942,8 +21696,11 @@
       <c r="Y252" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+      <c r="Z252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>44905</v>
       </c>
@@ -20978,7 +21735,7 @@
         <v>2023</v>
       </c>
       <c r="L253" s="15">
-        <v>4.360000133514404</v>
+        <v>4.3600001335144043</v>
       </c>
       <c r="M253" s="16"/>
       <c r="N253" s="16"/>
@@ -21009,8 +21766,11 @@
       <c r="Y253" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+      <c r="Z253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>44756</v>
       </c>
@@ -21045,7 +21805,7 @@
         <v>2023</v>
       </c>
       <c r="L254" s="9">
-        <v>3.680000066757202</v>
+        <v>3.6800000667572021</v>
       </c>
       <c r="M254" s="7">
         <v>160</v>
@@ -21078,8 +21838,11 @@
       <c r="Y254" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+      <c r="Z254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>44923</v>
       </c>
@@ -21114,7 +21877,7 @@
         <v>2023</v>
       </c>
       <c r="L255" s="15">
-        <v>4.269999980926514</v>
+        <v>4.2699999809265137</v>
       </c>
       <c r="M255" s="16"/>
       <c r="N255" s="16"/>
@@ -21143,8 +21906,11 @@
       <c r="Y255" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+      <c r="Z255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>44734</v>
       </c>
@@ -21198,8 +21964,11 @@
       <c r="Y256" s="11" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+      <c r="Z256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>44646</v>
       </c>
@@ -21263,8 +22032,11 @@
       <c r="Y257" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+      <c r="Z257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>44873</v>
       </c>
@@ -21330,8 +22102,11 @@
       <c r="Y258" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
+      <c r="Z258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>44639</v>
       </c>
@@ -21395,8 +22170,11 @@
       <c r="Y259" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+      <c r="Z259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>44898</v>
       </c>
@@ -21460,8 +22238,11 @@
       <c r="Y260" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+      <c r="Z260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>44612</v>
       </c>
@@ -21496,7 +22277,7 @@
         <v>2023</v>
       </c>
       <c r="L261" s="15">
-        <v>5.090000152587891</v>
+        <v>5.0900001525878906</v>
       </c>
       <c r="M261" s="16"/>
       <c r="N261" s="16"/>
@@ -21527,8 +22308,11 @@
       <c r="Y261" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+      <c r="Z261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>44813</v>
       </c>
@@ -21594,8 +22378,11 @@
       <c r="Y262" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+      <c r="Z262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>44575</v>
       </c>
@@ -21630,7 +22417,7 @@
         <v>2023</v>
       </c>
       <c r="L263" s="15">
-        <v>4.239999771118164</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="M263" s="16"/>
       <c r="N263" s="16"/>
@@ -21661,8 +22448,11 @@
       <c r="Y263" s="17" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
+      <c r="Z263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>44619</v>
       </c>
@@ -21697,7 +22487,7 @@
         <v>2023</v>
       </c>
       <c r="L264" s="9">
-        <v>4.28000020980835</v>
+        <v>4.2800002098083496</v>
       </c>
       <c r="M264" s="7">
         <v>94</v>
@@ -21730,8 +22520,11 @@
       <c r="Y264" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+      <c r="Z264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>44595</v>
       </c>
@@ -21795,8 +22588,11 @@
       <c r="Y265" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
+      <c r="Z265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>44583</v>
       </c>
@@ -21831,7 +22627,7 @@
         <v>2023</v>
       </c>
       <c r="L266" s="9">
-        <v>3.759999990463257</v>
+        <v>3.7599999904632568</v>
       </c>
       <c r="M266" s="10"/>
       <c r="N266" s="10"/>
@@ -21860,8 +22656,11 @@
       <c r="Y266" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+      <c r="Z266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>44905</v>
       </c>
@@ -21896,7 +22695,7 @@
         <v>2023</v>
       </c>
       <c r="L267" s="15">
-        <v>4.230000019073486</v>
+        <v>4.2300000190734863</v>
       </c>
       <c r="M267" s="16"/>
       <c r="N267" s="16"/>
@@ -21925,8 +22724,11 @@
       <c r="Y267" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
+      <c r="Z267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>44675</v>
       </c>
@@ -21990,8 +22792,11 @@
       <c r="Y268" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
+      <c r="Z268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>44848</v>
       </c>
@@ -22045,8 +22850,11 @@
       <c r="Y269" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
+      <c r="Z269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>44803</v>
       </c>
@@ -22110,8 +22918,11 @@
       <c r="Y270" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+      <c r="Z270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>44687</v>
       </c>
@@ -22175,8 +22986,11 @@
       <c r="Y271" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
+      <c r="Z271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>44687</v>
       </c>
@@ -22236,8 +23050,11 @@
       <c r="Y272" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
+      <c r="Z272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>44915</v>
       </c>
@@ -22268,7 +23085,7 @@
         <v>2023</v>
       </c>
       <c r="L273" s="15">
-        <v>4.260000228881836</v>
+        <v>4.2600002288818359</v>
       </c>
       <c r="M273" s="13">
         <v>51</v>
@@ -22295,8 +23112,11 @@
       <c r="Y273" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
+      <c r="Z273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>44706</v>
       </c>
@@ -22327,7 +23147,7 @@
         <v>2023</v>
       </c>
       <c r="L274" s="9">
-        <v>4.449999809265137</v>
+        <v>4.4499998092651367</v>
       </c>
       <c r="M274" s="10"/>
       <c r="N274" s="10"/>
@@ -22350,8 +23170,11 @@
       <c r="Y274" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
+      <c r="Z274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>44899</v>
       </c>
@@ -22405,8 +23228,11 @@
       <c r="Y275" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+      <c r="Z275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>44730</v>
       </c>
@@ -22460,8 +23286,11 @@
       <c r="Y276" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+      <c r="Z276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="12">
         <v>44798</v>
       </c>
@@ -22515,8 +23344,11 @@
       <c r="Y277" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
+      <c r="Z277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>44732</v>
       </c>
@@ -22551,7 +23383,7 @@
         <v>2023</v>
       </c>
       <c r="L278" s="9">
-        <v>3.819999933242798</v>
+        <v>3.8199999332427979</v>
       </c>
       <c r="M278" s="10"/>
       <c r="N278" s="10"/>
@@ -22586,8 +23418,11 @@
       <c r="Y278" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+      <c r="Z278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12">
         <v>44790</v>
       </c>
@@ -22618,7 +23453,7 @@
         <v>2023</v>
       </c>
       <c r="L279" s="15">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="M279" s="16"/>
       <c r="N279" s="16"/>
@@ -22641,8 +23476,11 @@
       <c r="Y279" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
+      <c r="Z279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>44634</v>
       </c>
@@ -22702,8 +23540,11 @@
       <c r="Y280" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
+      <c r="Z280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>44672</v>
       </c>
@@ -22771,8 +23612,11 @@
       <c r="Y281" s="17" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
+      <c r="Z281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>44763</v>
       </c>
@@ -22807,7 +23651,7 @@
         <v>2023</v>
       </c>
       <c r="L282" s="9">
-        <v>4.28000020980835</v>
+        <v>4.2800002098083496</v>
       </c>
       <c r="M282" s="10"/>
       <c r="N282" s="10"/>
@@ -22838,8 +23682,11 @@
       <c r="Y282" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
+      <c r="Z282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>44823</v>
       </c>
@@ -22874,7 +23721,7 @@
         <v>2023</v>
       </c>
       <c r="L283" s="15">
-        <v>3.759999990463257</v>
+        <v>3.7599999904632568</v>
       </c>
       <c r="M283" s="16"/>
       <c r="N283" s="16"/>
@@ -22903,8 +23750,11 @@
       <c r="Y283" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
+      <c r="Z283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>44574</v>
       </c>
@@ -22939,7 +23789,7 @@
         <v>2023</v>
       </c>
       <c r="L284" s="9">
-        <v>3.680000066757202</v>
+        <v>3.6800000667572021</v>
       </c>
       <c r="M284" s="10"/>
       <c r="N284" s="10"/>
@@ -22974,8 +23824,11 @@
       <c r="Y284" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
+      <c r="Z284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>44861</v>
       </c>
@@ -23010,7 +23863,7 @@
         <v>2023</v>
       </c>
       <c r="L285" s="15">
-        <v>4.03000020980835</v>
+        <v>4.0300002098083496</v>
       </c>
       <c r="M285" s="16"/>
       <c r="N285" s="16"/>
@@ -23041,8 +23894,11 @@
       <c r="Y285" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+      <c r="Z285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>44925</v>
       </c>
@@ -23106,8 +23962,11 @@
       <c r="Y286" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
+      <c r="Z286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12">
         <v>44773</v>
       </c>
@@ -23171,8 +24030,11 @@
       <c r="Y287" s="17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+      <c r="Z287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>44687</v>
       </c>
@@ -23207,7 +24069,7 @@
         <v>2023</v>
       </c>
       <c r="L288" s="9">
-        <v>4.409999847412109</v>
+        <v>4.4099998474121094</v>
       </c>
       <c r="M288" s="10"/>
       <c r="N288" s="10"/>
@@ -23236,8 +24098,11 @@
       <c r="Y288" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
+      <c r="Z288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12">
         <v>44780</v>
       </c>
@@ -23272,7 +24137,7 @@
         <v>2023</v>
       </c>
       <c r="L289" s="15">
-        <v>4.449999809265137</v>
+        <v>4.4499998092651367</v>
       </c>
       <c r="M289" s="16"/>
       <c r="N289" s="16"/>
@@ -23303,8 +24168,11 @@
       <c r="Y289" s="17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
+      <c r="Z289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>44586</v>
       </c>
@@ -23356,8 +24224,11 @@
       <c r="Y290" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
+      <c r="Z290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>44720</v>
       </c>
@@ -23417,8 +24288,11 @@
         <v>761</v>
       </c>
       <c r="Y291" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
+      <c r="Z291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>44814</v>
       </c>
@@ -23453,7 +24327,7 @@
         <v>2023</v>
       </c>
       <c r="L292" s="9">
-        <v>3.640000104904175</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="M292" s="7">
         <v>123</v>
@@ -23488,8 +24362,11 @@
       <c r="Y292" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+      <c r="Z292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="12">
         <v>44571</v>
       </c>
@@ -23520,7 +24397,7 @@
         <v>2023</v>
       </c>
       <c r="L293" s="15">
-        <v>3.509999990463257</v>
+        <v>3.5099999904632568</v>
       </c>
       <c r="M293" s="16"/>
       <c r="N293" s="16"/>
@@ -23543,8 +24420,11 @@
       <c r="Y293" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
+      <c r="Z293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>44794</v>
       </c>
@@ -23579,7 +24459,7 @@
         <v>2023</v>
       </c>
       <c r="L294" s="9">
-        <v>4.489999771118164</v>
+        <v>4.4899997711181641</v>
       </c>
       <c r="M294" s="10"/>
       <c r="N294" s="10"/>
@@ -23608,8 +24488,11 @@
       <c r="Y294" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+      <c r="Z294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="12">
         <v>44689</v>
       </c>
@@ -23677,8 +24560,11 @@
       <c r="Y295" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+      <c r="Z295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>44807</v>
       </c>
@@ -23713,7 +24599,7 @@
         <v>2023</v>
       </c>
       <c r="L296" s="9">
-        <v>4.46999979019165</v>
+        <v>4.4699997901916504</v>
       </c>
       <c r="M296" s="10"/>
       <c r="N296" s="10"/>
@@ -23742,8 +24628,11 @@
       <c r="Y296" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+      <c r="Z296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="12">
         <v>44726</v>
       </c>
@@ -23778,7 +24667,7 @@
         <v>2023</v>
       </c>
       <c r="L297" s="15">
-        <v>4.340000152587891</v>
+        <v>4.3400001525878906</v>
       </c>
       <c r="M297" s="13">
         <v>83</v>
@@ -23811,8 +24700,11 @@
       <c r="Y297" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
+      <c r="Z297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>44610</v>
       </c>
@@ -23876,8 +24768,11 @@
       <c r="Y298" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+      <c r="Z298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="12">
         <v>44682</v>
       </c>
@@ -23943,8 +24838,11 @@
       <c r="Y299" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
+      <c r="Z299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>44673</v>
       </c>
@@ -24010,8 +24908,11 @@
       <c r="Y300" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
+      <c r="Z300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="12">
         <v>44612</v>
       </c>
@@ -24071,8 +24972,11 @@
         <v>786</v>
       </c>
       <c r="Y301" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
+      <c r="Z301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>44795</v>
       </c>
@@ -24107,7 +25011,7 @@
         <v>2023</v>
       </c>
       <c r="L302" s="9">
-        <v>5.150000095367432</v>
+        <v>5.1500000953674316</v>
       </c>
       <c r="M302" s="7">
         <v>15</v>
@@ -24140,8 +25044,11 @@
       <c r="Y302" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
+      <c r="Z302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="12">
         <v>44920</v>
       </c>
@@ -24201,8 +25108,11 @@
       <c r="Y303" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
+      <c r="Z303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>44849</v>
       </c>
@@ -24237,7 +25147,7 @@
         <v>2023</v>
       </c>
       <c r="L304" s="9">
-        <v>4.159999847412109</v>
+        <v>4.1599998474121094</v>
       </c>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
@@ -24268,8 +25178,11 @@
       <c r="Y304" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
+      <c r="Z304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="12">
         <v>44829</v>
       </c>
@@ -24327,8 +25240,11 @@
       <c r="Y305" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
+      <c r="Z305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>44664</v>
       </c>
@@ -24392,8 +25308,11 @@
       <c r="Y306" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
+      <c r="Z306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="12">
         <v>44741</v>
       </c>
@@ -24428,7 +25347,7 @@
         <v>2023</v>
       </c>
       <c r="L307" s="15">
-        <v>3.359999895095825</v>
+        <v>3.3599998950958252</v>
       </c>
       <c r="M307" s="13">
         <v>360</v>
@@ -24461,8 +25380,11 @@
       <c r="Y307" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
+      <c r="Z307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>44659</v>
       </c>
@@ -24526,8 +25448,11 @@
       <c r="Y308" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
+      <c r="Z308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="12">
         <v>44570</v>
       </c>
@@ -24562,7 +25487,7 @@
         <v>2023</v>
       </c>
       <c r="L309" s="15">
-        <v>4.769999980926514</v>
+        <v>4.7699999809265137</v>
       </c>
       <c r="M309" s="16"/>
       <c r="N309" s="16"/>
@@ -24593,8 +25518,11 @@
       <c r="Y309" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
+      <c r="Z309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>44717</v>
       </c>
@@ -24648,8 +25576,11 @@
       <c r="Y310" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
+      <c r="Z310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>44576</v>
       </c>
@@ -24703,8 +25634,11 @@
       <c r="Y311" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
+      <c r="Z311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>44584</v>
       </c>
@@ -24758,8 +25692,11 @@
       <c r="Y312" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
+      <c r="Z312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="12">
         <v>44627</v>
       </c>
@@ -24794,7 +25731,7 @@
         <v>2023</v>
       </c>
       <c r="L313" s="15">
-        <v>3.950000047683716</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="M313" s="16"/>
       <c r="N313" s="16"/>
@@ -24823,8 +25760,11 @@
       <c r="Y313" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
+      <c r="Z313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>44677</v>
       </c>
@@ -24855,7 +25795,7 @@
         <v>2023</v>
       </c>
       <c r="L314" s="9">
-        <v>4.329999923706055</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="M314" s="7">
         <v>41</v>
@@ -24882,8 +25822,11 @@
       <c r="Y314" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
+      <c r="Z314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="12">
         <v>44794</v>
       </c>
@@ -24947,8 +25890,11 @@
       <c r="Y315" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
+      <c r="Z315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>44585</v>
       </c>
@@ -24979,7 +25925,7 @@
         <v>2023</v>
       </c>
       <c r="L316" s="9">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="M316" s="10"/>
       <c r="N316" s="10"/>
@@ -25002,6 +25948,9 @@
       <c r="Y316" s="11" t="s">
         <v>78</v>
       </c>
+      <c r="Z316">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
